--- a/接口定义.xlsx
+++ b/接口定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>输入</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>编码器方向（白色）</t>
+  </si>
+  <si>
+    <t>测试输出</t>
+  </si>
+  <si>
+    <t>P2.7</t>
+  </si>
+  <si>
+    <t>TestOut</t>
   </si>
 </sst>
 </file>
@@ -437,7 +446,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,9 +520,15 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口定义.xlsx
+++ b/接口定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>输入</t>
   </si>
@@ -24,12 +24,6 @@
     <t>输出</t>
   </si>
   <si>
-    <t>电机前进</t>
-  </si>
-  <si>
-    <t>电机后退</t>
-  </si>
-  <si>
     <t>P1.5</t>
   </si>
   <si>
@@ -42,12 +36,6 @@
     <t>P2.4</t>
   </si>
   <si>
-    <t>MotorForward</t>
-  </si>
-  <si>
-    <t>MotorBack</t>
-  </si>
-  <si>
     <t>EncoderCounting</t>
   </si>
   <si>
@@ -67,6 +55,126 @@
   </si>
   <si>
     <t>TestOut</t>
+  </si>
+  <si>
+    <t>液压剪刀上方感应器</t>
+  </si>
+  <si>
+    <t>液压剪刀下方感应器</t>
+  </si>
+  <si>
+    <t>启动按钮</t>
+  </si>
+  <si>
+    <t>手动/自动按钮</t>
+  </si>
+  <si>
+    <t>停止按钮</t>
+  </si>
+  <si>
+    <t>端口</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>程序变量</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>液压剪刀按钮</t>
+  </si>
+  <si>
+    <t>手动状态下，启动按钮， 系统停止按钮无效，编码器接收信号无效。自动状态下 ，液压剪刀按钮无效。（高电平自动，低电平手动）</t>
+  </si>
+  <si>
+    <t>启动按钮只有在自动状态下才有效，启动之后，电机开始输出，单片机开始接收编码器信号。</t>
+  </si>
+  <si>
+    <t>只有下手动状态下才有效。</t>
+  </si>
+  <si>
+    <t>系统在工作之前，根据液压剪刀是否在上的位置（常亮）来判定是否可以正常工作。</t>
+  </si>
+  <si>
+    <t>电机停止输出。只有在自动状态下才有效。</t>
+  </si>
+  <si>
+    <t>电机前进快速</t>
+  </si>
+  <si>
+    <t>电机前进慢速</t>
+  </si>
+  <si>
+    <t>液压剪刀输出</t>
+  </si>
+  <si>
+    <t>电机后退快速</t>
+  </si>
+  <si>
+    <t>电机后退慢速</t>
+  </si>
+  <si>
+    <t>P0.0</t>
+  </si>
+  <si>
+    <t>P0.1</t>
+  </si>
+  <si>
+    <t>P0.2</t>
+  </si>
+  <si>
+    <t>P0.3</t>
+  </si>
+  <si>
+    <t>P0.4</t>
+  </si>
+  <si>
+    <t>P0.5</t>
+  </si>
+  <si>
+    <t>P1.0</t>
+  </si>
+  <si>
+    <t>P1.1</t>
+  </si>
+  <si>
+    <t>P1.2</t>
+  </si>
+  <si>
+    <t>HydClamInductorTop</t>
+  </si>
+  <si>
+    <t>HydClamInductorBottom</t>
+  </si>
+  <si>
+    <t>KeyStart</t>
+  </si>
+  <si>
+    <t>KeyAutoManual</t>
+  </si>
+  <si>
+    <t>KeyStop</t>
+  </si>
+  <si>
+    <t>KeyHydClam</t>
+  </si>
+  <si>
+    <t>MotorForwardFast</t>
+  </si>
+  <si>
+    <t>MotorBackFast</t>
+  </si>
+  <si>
+    <t>MotorForwardSlow</t>
+  </si>
+  <si>
+    <t>MotorBackSlow</t>
+  </si>
+  <si>
+    <t>HydClamOut</t>
   </si>
 </sst>
 </file>
@@ -91,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +230,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -131,17 +257,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,94 +776,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="18"/>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="18"/>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="18"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="18"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/接口定义.xlsx
+++ b/接口定义.xlsx
@@ -141,9 +141,6 @@
     <t>P1.1</t>
   </si>
   <si>
-    <t>P1.2</t>
-  </si>
-  <si>
     <t>HydClamInductorTop</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>HydClamOut</t>
+  </si>
+  <si>
+    <t>P1.4</t>
   </si>
 </sst>
 </file>
@@ -438,27 +438,34 @@
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,13 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,7 +779,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,228 +806,228 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19"/>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="19"/>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="19"/>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23"/>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="23"/>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="23"/>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="18"/>
-      <c r="B15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="16"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
